--- a/demo/change_psword/test_excel_data/test_data.xlsx
+++ b/demo/change_psword/test_excel_data/test_data.xlsx
@@ -34,6 +34,112 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -43,23 +149,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -73,98 +163,8 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -178,19 +178,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,163 +298,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,6 +369,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -397,78 +469,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -477,10 +477,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -489,16 +489,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
@@ -507,126 +507,123 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
@@ -952,12 +949,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="H13 C17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -984,45 +981,60 @@
           <t>新密码</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>旧密码</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>10000000022@uitest.com</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>1200008351</t>
+          <t>10000000020@uitest.com</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>1200008350</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Gu183207</t>
+          <t>Jl342059</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>Li271405</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>10000000020@uitest.com</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>1200008350</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>Ab389670</t>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>10000000025@uitest.com</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>1200008353</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Jj915867</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Ac805623</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" tooltip="mailto:10000000022@uitest.com" display="10000000022@uitest.com" r:id="rId1"/>
-    <hyperlink ref="A3" display="10000000020@uitest.com" r:id="rId2"/>
+    <hyperlink ref="A2" tooltip="mailto:10000000020@uitest.com" display="10000000020@uitest.com" r:id="rId1"/>
+    <hyperlink ref="A3" display="10000000025@uitest.com" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/demo/change_psword/test_excel_data/test_data.xlsx
+++ b/demo/change_psword/test_excel_data/test_data.xlsx
@@ -1,208 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>主账号</t>
-  </si>
-  <si>
-    <t>新密码</t>
-  </si>
-  <si>
-    <t>10000000020@uitest.com</t>
-  </si>
-  <si>
-    <t>Cm813972</t>
-  </si>
-  <si>
-    <t>10000000025@uitest.com</t>
-  </si>
-  <si>
-    <t>Jg062374</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -502,162 +471,162 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,11 +682,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -977,64 +1009,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
+      <selection activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.375" style="1" customWidth="1"/>
-    <col min="4" max="16383" width="9" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="9" style="1"/>
+    <col width="25" customWidth="1" style="1" min="1" max="1"/>
+    <col width="17.75" customWidth="1" style="1" min="2" max="2"/>
+    <col width="33.375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="9" customWidth="1" style="1" min="4" max="16383"/>
+    <col width="9" customWidth="1" style="1" min="16384" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>邮箱</t>
+        </is>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>主账号</t>
+        </is>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新密码</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>10000000020@uitest.com</t>
+        </is>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="n">
         <v>1200008350</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Ig928673</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>10000000025@uitest.com</t>
+        </is>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="n">
         <v>1200008353</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Xq278051</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="10000000020@uitest.com" tooltip="mailto:10000000020@uitest.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="10000000025@uitest.com" tooltip="mailto:10000000025@uitest.com"/>
+    <hyperlink ref="A2" tooltip="mailto:10000000020@uitest.com" display="10000000020@uitest.com" r:id="rId1"/>
+    <hyperlink ref="A3" tooltip="mailto:10000000025@uitest.com" display="10000000025@uitest.com" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/demo/change_psword/test_excel_data/test_data.xlsx
+++ b/demo/change_psword/test_excel_data/test_data.xlsx
@@ -1,202 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>主账号</t>
-  </si>
-  <si>
-    <t>新密码</t>
-  </si>
-  <si>
-    <t>tyler.tang@test.com</t>
-  </si>
-  <si>
-    <t>Sy753924</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -496,162 +471,162 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -707,11 +682,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -971,51 +941,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
+      <selection activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1" customWidth="1"/>
+    <col width="25" customWidth="1" style="1" min="1" max="1"/>
+    <col width="17.75" customWidth="1" style="1" min="2" max="2"/>
+    <col width="33.375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="9" customWidth="1" style="1" min="4" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>邮箱</t>
+        </is>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>主账号</t>
+        </is>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新密码</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>tyler.tang@test.com</t>
+        </is>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="n">
         <v>1000005349</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Do209857</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="tyler.tang@test.com" tooltip="mailto:tyler.tang@test.com"/>
+    <hyperlink ref="A2" tooltip="mailto:tyler.tang@test.com" display="tyler.tang@test.com" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/demo/change_psword/test_excel_data/test_data.xlsx
+++ b/demo/change_psword/test_excel_data/test_data.xlsx
@@ -990,7 +990,7 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Do209857</t>
+          <t>Vk732604</t>
         </is>
       </c>
     </row>
